--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H2">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I2">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J2">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N2">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O2">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P2">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q2">
-        <v>56.31286151887711</v>
+        <v>233.1753671332672</v>
       </c>
       <c r="R2">
-        <v>506.8157536698939</v>
+        <v>2098.578304199405</v>
       </c>
       <c r="S2">
-        <v>0.04709460191032785</v>
+        <v>0.1015471486739763</v>
       </c>
       <c r="T2">
-        <v>0.04709460191032784</v>
+        <v>0.1015471486739762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H3">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I3">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J3">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N3">
         <v>2.685736</v>
       </c>
       <c r="O3">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P3">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q3">
-        <v>0.3688228740115555</v>
+        <v>0.8184819253964446</v>
       </c>
       <c r="R3">
-        <v>3.319405866104</v>
+        <v>7.366337328568001</v>
       </c>
       <c r="S3">
-        <v>0.0003084475900975946</v>
+        <v>0.0003564463381661258</v>
       </c>
       <c r="T3">
-        <v>0.0003084475900975945</v>
+        <v>0.0003564463381661258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H4">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I4">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J4">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N4">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P4">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q4">
-        <v>2.020068276486555</v>
+        <v>6.446000765906444</v>
       </c>
       <c r="R4">
-        <v>18.180614488379</v>
+        <v>58.014006893158</v>
       </c>
       <c r="S4">
-        <v>0.001689388689312577</v>
+        <v>0.002807213326928985</v>
       </c>
       <c r="T4">
-        <v>0.001689388689312576</v>
+        <v>0.002807213326928984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4119796666666666</v>
+        <v>0.9142543333333334</v>
       </c>
       <c r="H5">
-        <v>1.235939</v>
+        <v>2.742763</v>
       </c>
       <c r="I5">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="J5">
-        <v>0.0634382497734383</v>
+        <v>0.1175834869881751</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N5">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P5">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q5">
-        <v>17.15384923790289</v>
+        <v>29.55860020875755</v>
       </c>
       <c r="R5">
-        <v>154.384643141126</v>
+        <v>266.027401878818</v>
       </c>
       <c r="S5">
-        <v>0.01434581158370029</v>
+        <v>0.01287267864910371</v>
       </c>
       <c r="T5">
-        <v>0.01434581158370029</v>
+        <v>0.01287267864910371</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>14.478153</v>
       </c>
       <c r="I6">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J6">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N6">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O6">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P6">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q6">
-        <v>659.6654243762152</v>
+        <v>1230.856855363228</v>
       </c>
       <c r="R6">
-        <v>5936.988819385937</v>
+        <v>11077.71169826905</v>
       </c>
       <c r="S6">
-        <v>0.5516800197516374</v>
+        <v>0.5360343402676699</v>
       </c>
       <c r="T6">
-        <v>0.5516800197516373</v>
+        <v>0.5360343402676698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>14.478153</v>
       </c>
       <c r="I7">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J7">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N7">
         <v>2.685736</v>
       </c>
       <c r="O7">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P7">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q7">
-        <v>4.320499636178666</v>
+        <v>4.320499636178667</v>
       </c>
       <c r="R7">
         <v>38.884496725608</v>
       </c>
       <c r="S7">
-        <v>0.003613245800896532</v>
+        <v>0.001881564181906679</v>
       </c>
       <c r="T7">
-        <v>0.003613245800896532</v>
+        <v>0.001881564181906678</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>14.478153</v>
       </c>
       <c r="I8">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J8">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N8">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P8">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q8">
-        <v>23.66367399800366</v>
+        <v>34.02633961698866</v>
       </c>
       <c r="R8">
-        <v>212.973065982033</v>
+        <v>306.237056552898</v>
       </c>
       <c r="S8">
-        <v>0.01978999604376668</v>
+        <v>0.01481836529474725</v>
       </c>
       <c r="T8">
-        <v>0.01978999604376668</v>
+        <v>0.01481836529474725</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>14.478153</v>
       </c>
       <c r="I9">
-        <v>0.7431343183377619</v>
+        <v>0.6206849497708361</v>
       </c>
       <c r="J9">
-        <v>0.7431343183377619</v>
+        <v>0.620684949770836</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N9">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P9">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q9">
-        <v>200.9452358128447</v>
+        <v>156.0302280175953</v>
       </c>
       <c r="R9">
-        <v>1808.507122315602</v>
+        <v>1404.272052158358</v>
       </c>
       <c r="S9">
-        <v>0.1680510567414614</v>
+        <v>0.06795068002651226</v>
       </c>
       <c r="T9">
-        <v>0.1680510567414614</v>
+        <v>0.06795068002651225</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H10">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I10">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J10">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N10">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O10">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P10">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q10">
-        <v>171.2534945604338</v>
+        <v>506.5549843951916</v>
       </c>
       <c r="R10">
-        <v>1541.281451043904</v>
+        <v>4558.994859556725</v>
       </c>
       <c r="S10">
-        <v>0.1432197713727006</v>
+        <v>0.2206031234959869</v>
       </c>
       <c r="T10">
-        <v>0.1432197713727005</v>
+        <v>0.2206031234959869</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H11">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I11">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J11">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N11">
         <v>2.685736</v>
       </c>
       <c r="O11">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P11">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q11">
-        <v>1.121630198584889</v>
+        <v>1.778087042573333</v>
       </c>
       <c r="R11">
-        <v>10.094671787264</v>
+        <v>16.00278338316</v>
       </c>
       <c r="S11">
-        <v>0.0009380224387150025</v>
+        <v>0.0007743513883448477</v>
       </c>
       <c r="T11">
-        <v>0.0009380224387150024</v>
+        <v>0.0007743513883448477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H12">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I12">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J12">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N12">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P12">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q12">
-        <v>6.14324582818489</v>
+        <v>14.00342522252333</v>
       </c>
       <c r="R12">
-        <v>55.289212453664</v>
+        <v>126.03082700271</v>
       </c>
       <c r="S12">
-        <v>0.00513761348495257</v>
+        <v>0.006098448221607227</v>
       </c>
       <c r="T12">
-        <v>0.00513761348495257</v>
+        <v>0.006098448221607226</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.252874666666667</v>
+        <v>1.986145</v>
       </c>
       <c r="H13">
-        <v>3.758624</v>
+        <v>5.958435</v>
       </c>
       <c r="I13">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="J13">
-        <v>0.1929225698974139</v>
+        <v>0.2554407961214246</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N13">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P13">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q13">
-        <v>52.16670842004623</v>
+        <v>64.21371370215665</v>
       </c>
       <c r="R13">
-        <v>469.5003757804161</v>
+        <v>577.9234233194098</v>
       </c>
       <c r="S13">
-        <v>0.04362716260104577</v>
+        <v>0.02796487301548558</v>
       </c>
       <c r="T13">
-        <v>0.04362716260104577</v>
+        <v>0.02796487301548558</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H14">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I14">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J14">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.6884486666667</v>
+        <v>255.0443116666667</v>
       </c>
       <c r="N14">
-        <v>410.065346</v>
+        <v>765.132935</v>
       </c>
       <c r="O14">
-        <v>0.7423691870207686</v>
+        <v>0.863617428561108</v>
       </c>
       <c r="P14">
-        <v>0.7423691870207685</v>
+        <v>0.8636174285611079</v>
       </c>
       <c r="Q14">
-        <v>0.4481558603617778</v>
+        <v>12.47498241655167</v>
       </c>
       <c r="R14">
-        <v>4.033402743256</v>
+        <v>112.274841748965</v>
       </c>
       <c r="S14">
-        <v>0.0003747939861028617</v>
+        <v>0.005432816123474979</v>
       </c>
       <c r="T14">
-        <v>0.0003747939861028617</v>
+        <v>0.005432816123474977</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H15">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I15">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J15">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8952453333333333</v>
+        <v>0.8952453333333334</v>
       </c>
       <c r="N15">
         <v>2.685736</v>
       </c>
       <c r="O15">
-        <v>0.004862170554817893</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="P15">
-        <v>0.004862170554817892</v>
+        <v>0.003031431940796009</v>
       </c>
       <c r="Q15">
-        <v>0.002935211032888889</v>
+        <v>0.04378913498933334</v>
       </c>
       <c r="R15">
-        <v>0.026416899296</v>
+        <v>0.394102214904</v>
       </c>
       <c r="S15">
-        <v>2.45472510876341E-06</v>
+        <v>1.907003237835684E-05</v>
       </c>
       <c r="T15">
-        <v>2.45472510876341E-06</v>
+        <v>1.907003237835683E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H16">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I16">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J16">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.903320333333333</v>
+        <v>7.050555333333333</v>
       </c>
       <c r="N16">
-        <v>14.709961</v>
+        <v>21.151666</v>
       </c>
       <c r="O16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="P16">
-        <v>0.02663044291647413</v>
+        <v>0.02387421396349043</v>
       </c>
       <c r="Q16">
-        <v>0.01607635293288889</v>
+        <v>0.3448638130193333</v>
       </c>
       <c r="R16">
-        <v>0.144687176396</v>
+        <v>3.103774317174</v>
       </c>
       <c r="S16">
-        <v>1.344469844230056E-05</v>
+        <v>0.000150187120206971</v>
       </c>
       <c r="T16">
-        <v>1.344469844230056E-05</v>
+        <v>0.0001501871202069709</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.003278666666666667</v>
+        <v>0.04891300000000001</v>
       </c>
       <c r="H17">
-        <v>0.009836000000000001</v>
+        <v>0.146739</v>
       </c>
       <c r="I17">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564404</v>
       </c>
       <c r="J17">
-        <v>0.0005048619913859335</v>
+        <v>0.006290767119564403</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.63761133333333</v>
+        <v>32.33082866666666</v>
       </c>
       <c r="N17">
-        <v>124.912834</v>
+        <v>96.99248599999999</v>
       </c>
       <c r="O17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="P17">
-        <v>0.2261381995079395</v>
+        <v>0.1094769255346056</v>
       </c>
       <c r="Q17">
-        <v>0.1365158483582222</v>
+        <v>1.581397822572667</v>
       </c>
       <c r="R17">
-        <v>1.228642635224</v>
+        <v>14.232580403154</v>
       </c>
       <c r="S17">
-        <v>0.0001141685817320078</v>
+        <v>0.0006886938435040978</v>
       </c>
       <c r="T17">
-        <v>0.0001141685817320078</v>
+        <v>0.0006886938435040976</v>
       </c>
     </row>
   </sheetData>
